--- a/7rGroceryApp/src/main/resources/ExcelFiles/7rGroceryApp.xlsx
+++ b/7rGroceryApp/src/main/resources/ExcelFiles/7rGroceryApp.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geethu\eclipse-workspace\7rGroceryApp\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geethu\git\7rGroceryApp\7rGroceryApp\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB82A563-14AF-490F-BEA0-CC7609F529C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC36DA64-A89F-4D12-A21A-F53B73E6AF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Sign In</t>
   </si>
@@ -79,6 +81,54 @@
   </si>
   <si>
     <t>Column-1</t>
+  </si>
+  <si>
+    <t>Anandhu Prakash</t>
+  </si>
+  <si>
+    <t>NameofUser</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>pagetitle</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pagename</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>IMG_20221026_173939.jpg</t>
+  </si>
+  <si>
+    <t>Travel_Kerala</t>
+  </si>
+  <si>
+    <t>This is a new travel page</t>
+  </si>
+  <si>
+    <t>Travel details</t>
+  </si>
+  <si>
+    <t>anna123</t>
+  </si>
+  <si>
+    <t>leena123</t>
   </si>
 </sst>
 </file>
@@ -94,12 +144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,12 +170,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="0">(ROW(B4)-1)</f>
+        <f t="shared" ref="C4:C11" si="0">(ROW(B4)-1)</f>
         <v>3</v>
       </c>
       <c r="D4">
@@ -520,6 +577,108 @@
       <c r="D9">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E0C16C-72D3-4DD5-BBDB-BEBB193FD810}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8459CA-EE2B-4A71-91F0-988DE0539BD8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/7rGroceryApp/src/main/resources/ExcelFiles/7rGroceryApp.xlsx
+++ b/7rGroceryApp/src/main/resources/ExcelFiles/7rGroceryApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geethu\git\7rGroceryApp\7rGroceryApp\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC36DA64-A89F-4D12-A21A-F53B73E6AF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7C30A-2202-4B97-8CEE-1B209BA7A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10056" yWindow="2028" windowWidth="12984" windowHeight="9888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/7rGroceryApp/src/main/resources/ExcelFiles/7rGroceryApp.xlsx
+++ b/7rGroceryApp/src/main/resources/ExcelFiles/7rGroceryApp.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geethu\git\7rGroceryApp\7rGroceryApp\src\main\resources\ExcelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7C30A-2202-4B97-8CEE-1B209BA7A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9FC79E52-0C1F-4059-BB0F-8E24468C176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10056" yWindow="2028" windowWidth="12984" windowHeight="9888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="1920" yWindow="1920" windowWidth="13200" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
